--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4313B31-B60C-452A-8769-1AC1188DE01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB5AEEF-1E80-4D5E-B337-E8F4A238D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -176,6 +176,93 @@
   </si>
   <si>
     <t xml:space="preserve">FUNCTION: </t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>25A</t>
+  </si>
+  <si>
+    <t>FUNCTION: Vailddestination</t>
+  </si>
+  <si>
+    <t>Min edge case</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>Max Edge case</t>
+  </si>
+  <si>
+    <t>24X</t>
+  </si>
+  <si>
+    <t>1Z</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>12L</t>
+  </si>
+  <si>
+    <t>20A</t>
+  </si>
+  <si>
+    <t>Over edge case</t>
+  </si>
+  <si>
+    <t>in range</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Min valid destination</t>
+  </si>
+  <si>
+    <t>max valid destination</t>
+  </si>
+  <si>
+    <t>Over edgecase of routemap row</t>
+  </si>
+  <si>
+    <t>Over edgecase of routemap column</t>
+  </si>
+  <si>
+    <t>destination within routemap</t>
+  </si>
+  <si>
+    <t>invalid destination</t>
+  </si>
+  <si>
+    <t>T025</t>
+  </si>
+  <si>
+    <t>T026</t>
+  </si>
+  <si>
+    <t>T027</t>
+  </si>
+  <si>
+    <t>T028</t>
+  </si>
+  <si>
+    <t>T029</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -229,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -309,11 +396,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -366,6 +479,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -746,7 +886,9 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -762,7 +904,9 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -778,7 +922,9 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -794,7 +940,9 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -810,7 +958,9 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -826,7 +976,9 @@
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -842,7 +994,9 @@
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -858,7 +1012,9 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -874,7 +1030,9 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1125,11 +1283,91 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="14"/>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="14"/>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="14"/>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="14"/>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="14"/>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A26"/>
+    <mergeCell ref="A3:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1141,14 +1379,21 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.9296875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.46484375" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1164,32 +1409,28 @@
       <c r="B2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
+      <c r="C3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
@@ -1198,9 +1439,18 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
@@ -1209,9 +1459,18 @@
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
@@ -1220,47 +1479,141 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="7"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G11" s="8"/>
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D12" s="10"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="7"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1308,6 +1661,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84e5bdbfc05febe3/Documents/CPASemester2/SFT221/SFT Project/winter24--sft221-naa-1/Documents/Testing/Tests Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB5AEEF-1E80-4D5E-B337-E8F4A238D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{CFB5AEEF-1E80-4D5E-B337-E8F4A238D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24B4AF2E-7CE4-4C68-802E-C00983D6D959}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="4296" yWindow="1104" windowWidth="17196" windowHeight="10188" activeTab="2" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Blackbox</t>
   </si>
   <si>
-    <t xml:space="preserve">FUNCTION: </t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -263,6 +260,57 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>FUNCTION: getInput</t>
+  </si>
+  <si>
+    <t>valid exit condition</t>
+  </si>
+  <si>
+    <t>Invalid exit condition</t>
+  </si>
+  <si>
+    <t>exit string</t>
+  </si>
+  <si>
+    <t>0 0 x</t>
+  </si>
+  <si>
+    <t>20.528x</t>
+  </si>
+  <si>
+    <t>No space delemited input</t>
+  </si>
+  <si>
+    <t>20 .5 28x</t>
+  </si>
+  <si>
+    <t>valid user input, space delimited</t>
+  </si>
+  <si>
+    <t>20   .5  28x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       20 .5 28x</t>
+  </si>
+  <si>
+    <t>Invalid, there should be no leading whitespace</t>
+  </si>
+  <si>
+    <t>Leading whitespace case</t>
+  </si>
+  <si>
+    <t>multiple space delimiter</t>
+  </si>
+  <si>
+    <t>Space delimited values</t>
+  </si>
+  <si>
+    <t>invalid, program needs separate values</t>
+  </si>
+  <si>
+    <t>Invalid user input, only one space delimiter per input</t>
   </si>
 </sst>
 </file>
@@ -316,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -422,11 +470,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -450,6 +507,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,38 +538,44 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,6 +592,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,36 +897,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -879,15 +953,15 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -899,13 +973,13 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -917,13 +991,13 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -935,13 +1009,13 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -953,13 +1027,13 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -971,13 +1045,13 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -989,13 +1063,13 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1007,13 +1081,13 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1025,13 +1099,13 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1043,13 +1117,15 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1059,13 +1135,15 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1075,13 +1153,15 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1091,13 +1171,15 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1107,13 +1189,15 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1123,13 +1207,15 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1139,8 +1225,8 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1155,8 +1241,8 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1171,8 +1257,8 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1187,8 +1273,8 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1203,8 +1289,8 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1219,8 +1305,8 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1235,8 +1321,8 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1251,8 +1337,8 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1267,8 +1353,8 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1283,10 +1369,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1299,10 +1385,10 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1315,10 +1401,10 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1331,10 +1417,10 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1347,10 +1433,10 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1379,60 +1465,60 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.9296875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.46484375" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1440,19 +1526,19 @@
         <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1460,19 +1546,19 @@
         <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1480,19 +1566,19 @@
         <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1500,19 +1586,19 @@
         <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1520,19 +1606,19 @@
         <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1540,19 +1626,19 @@
         <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1560,19 +1646,19 @@
         <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1580,19 +1666,19 @@
         <v>43</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1600,54 +1686,54 @@
         <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="31">
+        <v>58</v>
+      </c>
+      <c r="D12" s="14">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -1669,171 +1755,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02FA876-2424-48F8-8D5E-D1F6D849256B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C5" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="7"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C7" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="13">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1844,44 +2008,44 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
@@ -1891,10 +2055,10 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F3" s="33"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
@@ -1903,7 +2067,7 @@
       <c r="D4" s="5"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>43</v>
@@ -1912,7 +2076,7 @@
       <c r="D5" s="5"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>43</v>
@@ -1921,7 +2085,7 @@
       <c r="D6" s="5"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
@@ -1930,66 +2094,66 @@
       <c r="D7" s="5"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2013,41 +2177,41 @@
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
@@ -2057,10 +2221,10 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F3" s="33"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
@@ -2069,7 +2233,7 @@
       <c r="D4" s="5"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>43</v>
@@ -2078,7 +2242,7 @@
       <c r="D5" s="5"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>43</v>
@@ -2087,7 +2251,7 @@
       <c r="D6" s="5"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
@@ -2096,66 +2260,66 @@
       <c r="D7" s="5"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2179,41 +2343,41 @@
       <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
@@ -2223,10 +2387,10 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F3" s="33"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
@@ -2235,7 +2399,7 @@
       <c r="D4" s="5"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>43</v>
@@ -2244,7 +2408,7 @@
       <c r="D5" s="5"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>43</v>
@@ -2253,7 +2417,7 @@
       <c r="D6" s="5"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
@@ -2262,66 +2426,66 @@
       <c r="D7" s="5"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2345,41 +2509,41 @@
       <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
@@ -2389,10 +2553,10 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F3" s="33"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
@@ -2401,7 +2565,7 @@
       <c r="D4" s="5"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>43</v>
@@ -2410,7 +2574,7 @@
       <c r="D5" s="5"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>43</v>
@@ -2419,7 +2583,7 @@
       <c r="D6" s="5"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
@@ -2428,66 +2592,66 @@
       <c r="D7" s="5"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84e5bdbfc05febe3/Documents/CPASemester2/SFT221/SFT Project/winter24--sft221-naa-1/Documents/Testing/Tests Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\Project\Project\winter24--sft221-naa-1\Documents\Testing\Tests Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{CFB5AEEF-1E80-4D5E-B337-E8F4A238D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24B4AF2E-7CE4-4C68-802E-C00983D6D959}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6111FFA2-ED3A-46AA-8116-B21708114AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4296" yWindow="1104" windowWidth="17196" windowHeight="10188" activeTab="2" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="101">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -311,6 +311,39 @@
   </si>
   <si>
     <t>Invalid user input, only one space delimiter per input</t>
+  </si>
+  <si>
+    <t>FUNCTION: AddRoute struct Map addRoute(const struct Map* map, const struct Route* route)</t>
+  </si>
+  <si>
+    <t>struct Map = NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>struct route = NULL</t>
+  </si>
+  <si>
+    <t>Function fail to add route into map</t>
+  </si>
+  <si>
+    <t>Function fail to add route</t>
+  </si>
+  <si>
+    <t>Add Route with Duplicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function fail route added </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of point not map . Out of Range </t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>Function suceess add point to map</t>
   </si>
 </sst>
 </file>
@@ -364,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -479,11 +512,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -559,12 +634,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,6 +650,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -592,10 +685,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,13 +990,13 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.53125" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -925,7 +1014,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="17"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
@@ -953,7 +1042,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>23</v>
       </c>
@@ -973,7 +1062,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -991,7 +1080,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -1009,7 +1098,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -1027,7 +1116,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -1045,7 +1134,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1063,7 +1152,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -1081,7 +1170,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -1099,7 +1188,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1117,7 +1206,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -1135,7 +1224,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -1153,7 +1242,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -1171,7 +1260,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -1189,7 +1278,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -1207,7 +1296,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -1225,7 +1314,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>25</v>
@@ -1241,7 +1330,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
         <v>26</v>
@@ -1257,7 +1346,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>27</v>
@@ -1273,7 +1362,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -1289,7 +1378,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="2" t="s">
         <v>29</v>
@@ -1305,7 +1394,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="2" t="s">
         <v>30</v>
@@ -1321,7 +1410,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>31</v>
@@ -1337,7 +1426,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
@@ -1353,7 +1442,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
         <v>33</v>
@@ -1369,7 +1458,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1385,7 +1474,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="2" t="s">
         <v>68</v>
@@ -1401,7 +1490,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1417,7 +1506,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
@@ -1433,7 +1522,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -1468,16 +1557,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.46484375" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
@@ -1488,7 +1577,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
@@ -1507,7 +1596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="11" t="s">
@@ -1518,7 +1607,7 @@
       <c r="F3" s="28"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1538,7 +1627,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1558,7 +1647,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1667,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1598,7 +1687,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1618,7 +1707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1638,7 +1727,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1658,7 +1747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1678,7 +1767,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1698,42 +1787,42 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -1755,18 +1844,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02FA876-2424-48F8-8D5E-D1F6D849256B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>73</v>
       </c>
@@ -1777,7 +1866,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
@@ -1796,7 +1885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="24" t="s">
@@ -1807,17 +1896,17 @@
       <c r="F3" s="33"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="15" t="s">
         <v>77</v>
       </c>
@@ -1828,17 +1917,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="15" t="s">
         <v>72</v>
       </c>
@@ -1849,17 +1938,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="31"/>
       <c r="E6" t="s">
         <v>78</v>
       </c>
@@ -1870,17 +1959,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="31"/>
       <c r="E7" t="s">
         <v>80</v>
       </c>
@@ -1891,17 +1980,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="31"/>
       <c r="E8" t="s">
         <v>82</v>
       </c>
@@ -1912,17 +2001,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="E9" t="s">
         <v>83</v>
       </c>
@@ -1933,64 +2022,58 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -1998,6 +2081,12 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2011,9 +2100,9 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
@@ -2024,7 +2113,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
@@ -2043,7 +2132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
@@ -2058,7 +2147,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
@@ -2067,7 +2156,7 @@
       <c r="D4" s="5"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>43</v>
@@ -2076,7 +2165,7 @@
       <c r="D5" s="5"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>43</v>
@@ -2085,7 +2174,7 @@
       <c r="D6" s="5"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
@@ -2094,66 +2183,66 @@
       <c r="D7" s="5"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2177,9 +2266,9 @@
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
@@ -2190,7 +2279,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
@@ -2209,7 +2298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
@@ -2224,7 +2313,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
@@ -2233,7 +2322,7 @@
       <c r="D4" s="5"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>43</v>
@@ -2242,7 +2331,7 @@
       <c r="D5" s="5"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>43</v>
@@ -2251,7 +2340,7 @@
       <c r="D6" s="5"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
@@ -2260,66 +2349,66 @@
       <c r="D7" s="5"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2343,9 +2432,9 @@
       <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
@@ -2356,7 +2445,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
@@ -2375,7 +2464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
@@ -2390,7 +2479,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
@@ -2399,7 +2488,7 @@
       <c r="D4" s="5"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>43</v>
@@ -2408,7 +2497,7 @@
       <c r="D5" s="5"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>43</v>
@@ -2417,7 +2506,7 @@
       <c r="D6" s="5"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
@@ -2426,66 +2515,66 @@
       <c r="D7" s="5"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2505,15 +2594,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE77D3E-AECA-4E5A-9C22-A49DAFF4EBE3}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.9296875" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -2522,18 +2616,18 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="34" t="s">
         <v>38</v>
       </c>
@@ -2541,127 +2635,169 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="33"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6642f03d3f68a2f/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jashandeep/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E35034E7-FCE0-4977-A302-14C4FD3D4485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E83E4D-AC0E-2B4E-878F-EBBA7CC20196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -373,6 +373,39 @@
   </si>
   <si>
     <t>exceeds the max size of truck.</t>
+  </si>
+  <si>
+    <t>FUNCTION: checkBoxSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> { "0.5","1","5"}</t>
+  </si>
+  <si>
+    <t>{ "0.5","1","5"}</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>This test case verifies the function's ability to correctly identify a valid box size when the input matches one of the acceptable sizes defined by the constants 'size1', 'size2', or 'size3'. It ensures that the function returns "valid" and 1 (true) as expected.</t>
+  </si>
+  <si>
+    <t>This test case evaluates the function's behavior when the input box size exceeds the maximum acceptable size defined by the constants. It verifies that the function properly recognizes such cases as "invalid" and returns 0 (false).</t>
+  </si>
+  <si>
+    <t>This test case examines the function's handling of an input box size that is null and does not match any of the acceptable sizes defined by the constants. It ensures that the function correctly identifies such cases as "invalid" and returns 0 (false). This scenario tests the robustness of the function against arbitrary input sizes.</t>
+  </si>
+  <si>
+    <t>This test case evaluates the function's behavior when the input string contains multiple values separated by a delimiter. Since the function is designed to handle only single integer values at a time, it should fail to process this input correctly and should return "invalid" or raise an error to indicate that multiple values are not allowed.</t>
+  </si>
+  <si>
+    <t>This test case evaluates the function's behavior when the input string contains characters instead of double. It verifies that the function correctly identifies such invalid inputs and handles them appropriately, possibly by returning an error message or code indicating invalid input.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -663,6 +696,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -675,12 +714,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,6 +730,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -717,9 +753,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -757,7 +793,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -863,7 +899,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1005,7 +1041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1015,17 +1051,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1079,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
@@ -1071,7 +1107,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>23</v>
       </c>
@@ -1091,7 +1127,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -1109,7 +1145,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -1127,7 +1163,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -1145,7 +1181,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -1163,7 +1199,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1181,7 +1217,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -1199,7 +1235,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -1217,7 +1253,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1235,7 +1271,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -1253,7 +1289,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -1271,7 +1307,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -1289,7 +1325,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -1307,7 +1343,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -1325,7 +1361,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -1343,14 +1379,16 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1359,14 +1397,16 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1375,14 +1415,16 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1391,14 +1433,16 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1407,14 +1451,16 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1423,7 +1469,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="2" t="s">
         <v>30</v>
@@ -1439,7 +1485,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>31</v>
@@ -1455,7 +1501,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
@@ -1471,7 +1517,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
         <v>33</v>
@@ -1487,7 +1533,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1503,7 +1549,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="2" t="s">
         <v>68</v>
@@ -1519,7 +1565,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1535,7 +1581,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
@@ -1551,7 +1597,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -1586,16 +1632,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
@@ -1606,7 +1652,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
@@ -1625,7 +1671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="11" t="s">
@@ -1636,7 +1682,7 @@
       <c r="F3" s="28"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1656,7 +1702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1676,7 +1722,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1696,7 +1742,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1716,7 +1762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1736,7 +1782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1756,7 +1802,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1776,7 +1822,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1796,7 +1842,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1816,42 +1862,42 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -1873,18 +1919,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02FA876-2424-48F8-8D5E-D1F6D849256B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>73</v>
       </c>
@@ -1895,47 +1941,47 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="31"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="15" t="s">
         <v>77</v>
       </c>
@@ -1946,17 +1992,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="15" t="s">
         <v>72</v>
       </c>
@@ -1967,17 +2013,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="31"/>
       <c r="E6" t="s">
         <v>78</v>
       </c>
@@ -1988,17 +2034,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="31"/>
       <c r="E7" t="s">
         <v>80</v>
       </c>
@@ -2009,17 +2055,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="31"/>
       <c r="E8" t="s">
         <v>82</v>
       </c>
@@ -2030,17 +2076,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="31"/>
       <c r="E9" t="s">
         <v>83</v>
       </c>
@@ -2051,64 +2097,58 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2116,6 +2156,12 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2126,14 +2172,14 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -2142,26 +2188,26 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
@@ -2173,105 +2219,178 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>16</v>
+      </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>17</v>
+      </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="C5" s="5">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>18</v>
+      </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="C6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>19</v>
+      </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2295,9 +2414,9 @@
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
@@ -2308,26 +2427,26 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
@@ -2339,10 +2458,10 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
@@ -2351,7 +2470,7 @@
       <c r="D4" s="5"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>43</v>
@@ -2360,7 +2479,7 @@
       <c r="D5" s="5"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>43</v>
@@ -2369,7 +2488,7 @@
       <c r="D6" s="5"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
@@ -2378,66 +2497,66 @@
       <c r="D7" s="5"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2457,16 +2576,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAB5B24-65B3-4E2E-8D57-C74976435AAD}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="108" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>101</v>
       </c>
@@ -2475,7 +2594,7 @@
       <c r="D1" s="21"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
@@ -2492,7 +2611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
@@ -2501,7 +2620,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -2518,7 +2637,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -2535,7 +2654,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -2552,7 +2671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
@@ -2567,61 +2686,61 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="8"/>
     </row>
   </sheetData>
@@ -2644,14 +2763,14 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>90</v>
       </c>
@@ -2662,7 +2781,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
@@ -2674,32 +2793,32 @@
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="39"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="40"/>
       <c r="D3" s="41"/>
       <c r="E3" s="42"/>
-      <c r="F3" s="31"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" t="s">
         <v>92</v>
       </c>
@@ -2707,16 +2826,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" t="s">
         <v>92</v>
       </c>
@@ -2724,16 +2843,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
       <c r="F6" t="s">
         <v>92</v>
       </c>
@@ -2741,16 +2860,16 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" t="s">
         <v>92</v>
       </c>
@@ -2758,16 +2877,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" t="s">
         <v>59</v>
       </c>
@@ -2775,75 +2894,75 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jashandeep/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jashandeep/Documents/GitHub/winter24--sft221-naa-1/Documents/Testing/Tests Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E83E4D-AC0E-2B4E-878F-EBBA7CC20196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D1A85D-C3C1-A94A-A2EB-6B91024DB7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="29400" windowHeight="17100" activeTab="7" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="R004" sheetId="10" r:id="rId5"/>
     <sheet name="R005" sheetId="11" r:id="rId6"/>
     <sheet name="R006" sheetId="12" r:id="rId7"/>
+    <sheet name="R007" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="136">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -406,13 +407,55 @@
   </si>
   <si>
     <t>This test case evaluates the function's behavior when the input string contains characters instead of double. It verifies that the function correctly identifies such invalid inputs and handles them appropriately, possibly by returning an error message or code indicating invalid input.</t>
+  </si>
+  <si>
+    <t>FUNCTION: double distance(const struct Point* p1, const struct Point* p2);</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Command line input</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>This test case verifies the function's behavior when provided with null pointers as input.</t>
+  </si>
+  <si>
+    <t>possibly returning an error code or undefined behavior.</t>
+  </si>
+  <si>
+    <t>This test case ensures that the function correctly computes the distance for valid input points.</t>
+  </si>
+  <si>
+    <t>(X1=9,Y1=7),(X2=3,Y2=4)</t>
+  </si>
+  <si>
+    <t>This test case checks if the function handles the scenario where both input points are the same.</t>
+  </si>
+  <si>
+    <t>(X1=5,Y1=2),(X2=5,Y2=2)</t>
+  </si>
+  <si>
+    <t>This test case ensures that the function handles coordinates that are outside the defined grid boundary</t>
+  </si>
+  <si>
+    <t>(X1=-3,Y1=35),(X2=26,Y2=-10)</t>
+  </si>
+  <si>
+    <t>The function should handle maximum edge case coordinates correctly and compute the distance accurately.</t>
+  </si>
+  <si>
+    <t>(X1=0,Y1=0),(X2=25,Y2=25)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +465,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -620,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -696,24 +753,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,8 +789,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -1948,12 +2013,12 @@
       <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="23" t="s">
@@ -1966,9 +2031,9 @@
       <c r="C3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1978,10 +2043,10 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="15" t="s">
         <v>77</v>
       </c>
@@ -1999,10 +2064,10 @@
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="15" t="s">
         <v>72</v>
       </c>
@@ -2020,10 +2085,10 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="35"/>
       <c r="E6" t="s">
         <v>78</v>
       </c>
@@ -2041,10 +2106,10 @@
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="35"/>
       <c r="E7" t="s">
         <v>80</v>
       </c>
@@ -2062,10 +2127,10 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="35"/>
       <c r="E8" t="s">
         <v>82</v>
       </c>
@@ -2083,10 +2148,10 @@
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="35"/>
       <c r="E9" t="s">
         <v>83</v>
       </c>
@@ -2149,6 +2214,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2156,12 +2227,6 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2172,7 +2237,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2195,12 +2260,12 @@
       <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="23" t="s">
@@ -2219,7 +2284,7 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2278,7 +2343,7 @@
       <c r="C6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E6">
@@ -2434,12 +2499,12 @@
       <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="23" t="s">
@@ -2458,7 +2523,7 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2793,7 +2858,7 @@
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="39"/>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="32" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="23" t="s">
@@ -2806,7 +2871,7 @@
       <c r="C3" s="40"/>
       <c r="D3" s="41"/>
       <c r="E3" s="42"/>
-      <c r="F3" s="33"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -2814,11 +2879,11 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" t="s">
         <v>92</v>
       </c>
@@ -2831,11 +2896,11 @@
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" t="s">
         <v>92</v>
       </c>
@@ -2848,11 +2913,11 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" t="s">
         <v>92</v>
       </c>
@@ -2865,11 +2930,11 @@
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="F7" t="s">
         <v>92</v>
       </c>
@@ -2882,11 +2947,11 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" t="s">
         <v>59</v>
       </c>
@@ -2952,19 +3017,192 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA7D5DB-916A-BB49-823D-FF2F3FE56BCF}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="46">
+        <v>6.7</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="44">
+        <v>0</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="46">
+        <v>35.35</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jashandeep/Documents/GitHub/winter24--sft221-naa-1/Documents/Testing/Tests Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sft project\winter24--sft221-naa-1\Documents\Testing\Tests Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D1A85D-C3C1-A94A-A2EB-6B91024DB7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEDCC1E-F4DB-4E82-AAE0-C6074A4BB97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="29400" windowHeight="17100" activeTab="7" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="149">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -449,13 +449,52 @@
   </si>
   <si>
     <t>(X1=0,Y1=0),(X2=25,Y2=25)</t>
+  </si>
+  <si>
+    <t>Weight = 1 kg</t>
+  </si>
+  <si>
+    <t>Weight = 1000 kg, Truck current weight = 200 kg</t>
+  </si>
+  <si>
+    <t>The maximum valid weight that can be added to a truck with enough capacity.</t>
+  </si>
+  <si>
+    <t>Weight = 1001 kg</t>
+  </si>
+  <si>
+    <t>Weight over the maximum valid package weight.</t>
+  </si>
+  <si>
+    <t>Weight = 500 kg, Truck current weight = 800 kg</t>
+  </si>
+  <si>
+    <t>Truck would go over maximum capacity with the addition of the new package.</t>
+  </si>
+  <si>
+    <t>Weight = 300 kg, Truck current weight = 900 kg</t>
+  </si>
+  <si>
+    <t>Truck exactly at maximum capacity with the addition of the new package.</t>
+  </si>
+  <si>
+    <t>The minimum valid weight for a package.</t>
+  </si>
+  <si>
+    <t>Weight = 0 kg</t>
+  </si>
+  <si>
+    <t>Invalid weight for a package.</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,8 +522,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,8 +566,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -673,11 +730,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -708,87 +817,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -799,6 +827,99 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,9 +939,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -858,7 +979,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -964,7 +1085,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1106,7 +1227,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1116,36 +1237,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -1172,8 +1293,8 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1192,8 +1313,8 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1210,8 +1331,8 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1228,8 +1349,8 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1246,8 +1367,8 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1264,8 +1385,8 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1282,8 +1403,8 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1300,8 +1421,8 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1318,8 +1439,8 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1336,8 +1457,8 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1354,8 +1475,8 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1372,8 +1493,8 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1511,8 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1408,8 +1529,8 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1426,8 +1547,8 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1444,8 +1565,8 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1583,8 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1480,8 +1601,8 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1498,8 +1619,8 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1516,8 +1637,8 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1534,15 +1655,17 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1550,15 +1673,17 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1566,15 +1691,17 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1582,15 +1709,17 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1598,15 +1727,17 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1614,15 +1745,17 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
       <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1630,8 +1763,8 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
@@ -1646,8 +1779,8 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
@@ -1662,8 +1795,8 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
@@ -1697,57 +1830,57 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="F3" s="33"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +1900,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1787,7 +1920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1807,7 +1940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1960,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1847,7 +1980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1867,7 +2000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1887,7 +2020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1907,7 +2040,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1927,42 +2060,42 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -1988,65 +2121,65 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="15" t="s">
         <v>77</v>
       </c>
@@ -2057,17 +2190,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="15" t="s">
         <v>72</v>
       </c>
@@ -2078,17 +2211,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="36"/>
       <c r="E6" t="s">
         <v>78</v>
       </c>
@@ -2099,17 +2232,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" t="s">
         <v>80</v>
       </c>
@@ -2120,17 +2253,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="36"/>
       <c r="E8" t="s">
         <v>82</v>
       </c>
@@ -2141,17 +2274,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" t="s">
         <v>83</v>
       </c>
@@ -2162,64 +2295,58 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2227,6 +2354,12 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2237,44 +2370,44 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:G10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
@@ -2284,10 +2417,10 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="38"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>16</v>
       </c>
@@ -2310,7 +2443,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>17</v>
       </c>
@@ -2333,7 +2466,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>18</v>
       </c>
@@ -2356,7 +2489,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>19</v>
       </c>
@@ -2379,7 +2512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>20</v>
       </c>
@@ -2402,60 +2535,60 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2476,164 +2609,220 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>39</v>
+      </c>
       <c r="F2" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>138</v>
+      </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+    <row r="5" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>140</v>
+      </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+    <row r="6" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>142</v>
+      </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+    <row r="7" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>144</v>
+      </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>147</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2645,47 +2834,47 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="30"/>
-    </row>
-    <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="D3" s="33"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -2702,7 +2891,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -2719,7 +2908,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -2736,7 +2925,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
@@ -2751,61 +2940,61 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="8"/>
     </row>
   </sheetData>
@@ -2828,62 +3017,62 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" t="s">
         <v>92</v>
       </c>
@@ -2891,16 +3080,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
       <c r="F5" t="s">
         <v>92</v>
       </c>
@@ -2908,16 +3097,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" t="s">
         <v>92</v>
       </c>
@@ -2925,16 +3114,16 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
       <c r="F7" t="s">
         <v>92</v>
       </c>
@@ -2942,16 +3131,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="F8" t="s">
         <v>59</v>
       </c>
@@ -2959,75 +3148,75 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3038,162 +3227,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA7D5DB-916A-BB49-823D-FF2F3FE56BCF}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="D12" zoomScale="92" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="45" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="45" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="19">
         <v>6.7</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="45" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="17">
         <v>0</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="45" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="45" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="19">
         <v>35.35</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sft project\winter24--sft221-naa-1\Documents\Testing\Tests Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6642f03d3f68a2f/Desktop/sft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEDCC1E-F4DB-4E82-AAE0-C6074A4BB97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9567C7A4-EB84-4BE1-840E-E2749E7ED851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="151">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -488,6 +488,12 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>T030</t>
+  </si>
+  <si>
+    <t>T031</t>
   </si>
 </sst>
 </file>
@@ -573,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -782,11 +788,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -828,6 +845,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -873,24 +902,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,18 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,25 +1266,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -1294,7 +1312,7 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1314,7 +1332,7 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1332,7 +1350,7 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1350,7 +1368,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1368,7 +1386,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1386,7 +1404,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1404,7 +1422,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1422,7 +1440,7 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1440,7 +1458,7 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1476,7 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1476,7 +1494,7 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1494,7 +1512,7 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1530,7 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1530,7 +1548,7 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1548,7 +1566,7 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1584,7 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1584,7 +1602,7 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1602,7 +1620,7 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1620,7 +1638,7 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1638,7 +1656,7 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1656,7 +1674,7 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1674,7 +1692,7 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1692,7 +1710,7 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1710,7 +1728,7 @@
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1728,7 +1746,7 @@
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
@@ -1746,7 +1764,7 @@
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
@@ -1764,7 +1782,7 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
@@ -1772,7 +1790,9 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1780,7 +1800,7 @@
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
@@ -1788,7 +1808,9 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1796,7 +1818,7 @@
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
@@ -1804,18 +1826,119 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="28"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="28"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="28"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="28"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="28"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="28"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="28"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="28"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A31"/>
+    <mergeCell ref="A32:A60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1840,45 +1963,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -2129,45 +2252,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -2176,10 +2299,10 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="15" t="s">
         <v>77</v>
       </c>
@@ -2197,10 +2320,10 @@
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="15" t="s">
         <v>72</v>
       </c>
@@ -2218,10 +2341,10 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="44"/>
       <c r="E6" t="s">
         <v>78</v>
       </c>
@@ -2239,10 +2362,10 @@
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="44"/>
       <c r="E7" t="s">
         <v>80</v>
       </c>
@@ -2260,10 +2383,10 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="44"/>
       <c r="E8" t="s">
         <v>82</v>
       </c>
@@ -2281,10 +2404,10 @@
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="44"/>
       <c r="E9" t="s">
         <v>83</v>
       </c>
@@ -2347,6 +2470,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2354,12 +2483,6 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2376,38 +2499,38 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
@@ -2417,8 +2540,8 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
@@ -2619,142 +2742,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="24" t="s">
         <v>138</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="24" t="s">
         <v>140</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="50" t="s">
+      <c r="B6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="24" t="s">
         <v>142</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="24" t="s">
         <v>144</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="50" t="s">
+      <c r="B8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="24" t="s">
         <v>147</v>
       </c>
       <c r="G8" s="8"/>
@@ -2830,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAB5B24-65B3-4E2E-8D57-C74976435AAD}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,43 +2963,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -2893,7 +3016,7 @@
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -2910,7 +3033,7 @@
     </row>
     <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -2926,7 +3049,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7">
+        <v>30</v>
+      </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -3025,54 +3150,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" t="s">
         <v>92</v>
       </c>
@@ -3085,11 +3210,11 @@
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="F5" t="s">
         <v>92</v>
       </c>
@@ -3102,11 +3227,11 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" t="s">
         <v>92</v>
       </c>
@@ -3119,11 +3244,11 @@
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" t="s">
         <v>92</v>
       </c>
@@ -3136,11 +3261,11 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
       <c r="F8" t="s">
         <v>59</v>
       </c>
@@ -3206,17 +3331,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3238,39 +3363,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6642f03d3f68a2f/Desktop/sft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\Project\Project\winter24--sft221-naa-1\Documents\Testing\Tests Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9567C7A4-EB84-4BE1-840E-E2749E7ED851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C5BAF-F08E-4911-BD44-DFA35AD58808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="155">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -494,6 +494,18 @@
   </si>
   <si>
     <t>T031</t>
+  </si>
+  <si>
+    <t>T032</t>
+  </si>
+  <si>
+    <t>T033</t>
+  </si>
+  <si>
+    <t>T034</t>
+  </si>
+  <si>
+    <t>T035</t>
   </si>
 </sst>
 </file>
@@ -579,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -788,17 +800,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -902,6 +903,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,12 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,7 +939,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,9 +958,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -997,7 +998,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1103,7 +1104,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1245,7 +1246,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1253,19 +1254,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.46484375" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1284,7 @@
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="26"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
@@ -1311,7 +1312,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>23</v>
       </c>
@@ -1331,7 +1332,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -1349,7 +1350,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="28"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -1367,7 +1368,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="28"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -1385,7 +1386,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="28"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -1403,7 +1404,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="28"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1421,7 +1422,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="28"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -1439,7 +1440,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="28"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -1457,7 +1458,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="28"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1475,7 +1476,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="28"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -1493,7 +1494,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="28"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -1511,7 +1512,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="28"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -1529,7 +1530,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="28"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -1547,7 +1548,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -1565,7 +1566,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="28"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -1583,7 +1584,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="28"/>
       <c r="B18" s="2" t="s">
         <v>25</v>
@@ -1601,7 +1602,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="28"/>
       <c r="B19" s="2" t="s">
         <v>26</v>
@@ -1619,7 +1620,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="28"/>
       <c r="B20" s="2" t="s">
         <v>27</v>
@@ -1637,7 +1638,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="28"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -1655,7 +1656,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="28"/>
       <c r="B22" s="2" t="s">
         <v>29</v>
@@ -1673,7 +1674,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="28"/>
       <c r="B23" s="2" t="s">
         <v>30</v>
@@ -1691,7 +1692,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="28"/>
       <c r="B24" s="2" t="s">
         <v>31</v>
@@ -1709,7 +1710,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="28"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
@@ -1727,7 +1728,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="28"/>
       <c r="B26" s="2" t="s">
         <v>33</v>
@@ -1745,7 +1746,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="28"/>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1763,7 +1764,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="28"/>
       <c r="B28" s="2" t="s">
         <v>68</v>
@@ -1781,7 +1782,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="28"/>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1799,7 +1800,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="28"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
@@ -1817,7 +1818,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="28"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -1835,110 +1836,119 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
-        <v>23</v>
-      </c>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="28"/>
       <c r="B32" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="52" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="28"/>
       <c r="B33" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="28"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="28"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="28"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="28"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
+      <c r="B37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="A32:A60"/>
+    <mergeCell ref="A3:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1953,16 +1963,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.46484375" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1983,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
@@ -1992,7 +2002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="11" t="s">
@@ -2003,7 +2013,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2023,7 +2033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2043,7 +2053,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2063,7 +2073,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2083,7 +2093,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -2103,7 +2113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2123,7 +2133,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2143,7 +2153,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2163,7 +2173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2183,42 +2193,42 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2244,14 +2254,14 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>73</v>
       </c>
@@ -2262,47 +2272,47 @@
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="40"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="15" t="s">
         <v>77</v>
       </c>
@@ -2313,17 +2323,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="15" t="s">
         <v>72</v>
       </c>
@@ -2334,17 +2344,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="40"/>
       <c r="E6" t="s">
         <v>78</v>
       </c>
@@ -2355,17 +2365,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="40"/>
       <c r="E7" t="s">
         <v>80</v>
       </c>
@@ -2376,17 +2386,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="40"/>
       <c r="E8" t="s">
         <v>82</v>
       </c>
@@ -2397,17 +2407,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="40"/>
       <c r="E9" t="s">
         <v>83</v>
       </c>
@@ -2418,64 +2428,58 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2483,6 +2487,12 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2496,9 +2506,9 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>111</v>
       </c>
@@ -2509,26 +2519,26 @@
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
@@ -2540,10 +2550,10 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>16</v>
       </c>
@@ -2566,7 +2576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>17</v>
       </c>
@@ -2589,7 +2599,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>18</v>
       </c>
@@ -2612,7 +2622,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>19</v>
       </c>
@@ -2635,7 +2645,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>20</v>
       </c>
@@ -2658,60 +2668,60 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2735,13 +2745,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -2752,7 +2762,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="21" t="s">
         <v>35</v>
       </c>
@@ -2773,7 +2783,7 @@
       </c>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="23" t="s">
         <v>30</v>
       </c>
@@ -2792,7 +2802,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="45.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="23" t="s">
         <v>31</v>
       </c>
@@ -2810,7 +2820,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="23" t="s">
         <v>32</v>
       </c>
@@ -2828,7 +2838,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="45.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="23" t="s">
         <v>33</v>
       </c>
@@ -2846,7 +2856,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="45.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="23" t="s">
         <v>67</v>
       </c>
@@ -2864,7 +2874,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="23" t="s">
         <v>68</v>
       </c>
@@ -2882,60 +2892,60 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2953,16 +2963,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAB5B24-65B3-4E2E-8D57-C74976435AAD}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="108" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>101</v>
       </c>
@@ -2971,7 +2981,7 @@
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
@@ -2988,7 +2998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
@@ -2997,7 +3007,7 @@
       <c r="D3" s="37"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>27</v>
       </c>
@@ -3014,7 +3024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>28</v>
       </c>
@@ -3031,7 +3041,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>29</v>
       </c>
@@ -3048,7 +3058,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>30</v>
       </c>
@@ -3065,61 +3075,61 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E24" s="8"/>
     </row>
   </sheetData>
@@ -3138,18 +3148,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE77D3E-AECA-4E5A-9C22-A49DAFF4EBE3}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.796875" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>90</v>
       </c>
@@ -3160,7 +3170,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
@@ -3172,32 +3182,34 @@
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="48"/>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="43" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="49"/>
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
-      <c r="F3" s="40"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" t="s">
         <v>92</v>
       </c>
@@ -3205,16 +3217,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" t="s">
         <v>92</v>
       </c>
@@ -3222,16 +3236,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" t="s">
         <v>92</v>
       </c>
@@ -3239,16 +3255,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" t="s">
         <v>92</v>
       </c>
@@ -3256,16 +3274,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" t="s">
         <v>59</v>
       </c>
@@ -3273,75 +3293,75 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3356,13 +3376,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>122</v>
       </c>
@@ -3371,7 +3391,7 @@
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
@@ -3381,23 +3401,23 @@
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="43" t="s">
         <v>123</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
         <v>43</v>
@@ -3414,7 +3434,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>43</v>
@@ -3431,7 +3451,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
         <v>43</v>
@@ -3448,7 +3468,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
         <v>43</v>
@@ -3465,7 +3485,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
         <v>43</v>
@@ -3482,7 +3502,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -3491,7 +3511,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -3500,7 +3520,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\Project\Project\winter24--sft221-naa-1\Documents\Testing\Tests Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jashandeep/Documents/GitHub/winter24--sft221-naa-1/Documents/Testing/Tests Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C5BAF-F08E-4911-BD44-DFA35AD58808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C86013C-63FD-1444-A519-40775A1BFC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="21800" windowHeight="12980" activeTab="7" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="160">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -506,6 +506,21 @@
   </si>
   <si>
     <t>T035</t>
+  </si>
+  <si>
+    <t>T036</t>
+  </si>
+  <si>
+    <t>T037</t>
+  </si>
+  <si>
+    <t>T039</t>
+  </si>
+  <si>
+    <t>T038</t>
+  </si>
+  <si>
+    <t>T040</t>
   </si>
 </sst>
 </file>
@@ -591,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -800,6 +815,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -903,24 +929,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -939,7 +965,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,19 +1280,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B37"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.46484375" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1310,7 @@
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="26"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
@@ -1312,7 +1338,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>23</v>
       </c>
@@ -1332,7 +1358,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -1350,7 +1376,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -1368,7 +1394,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -1386,7 +1412,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -1404,7 +1430,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1422,7 +1448,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -1440,7 +1466,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -1458,7 +1484,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1476,7 +1502,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="28"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -1494,7 +1520,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -1512,7 +1538,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="28"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -1530,7 +1556,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="28"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -1548,7 +1574,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -1566,7 +1592,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -1584,7 +1610,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="2" t="s">
         <v>25</v>
@@ -1602,7 +1628,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
       <c r="B19" s="2" t="s">
         <v>26</v>
@@ -1620,7 +1646,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="28"/>
       <c r="B20" s="2" t="s">
         <v>27</v>
@@ -1638,7 +1664,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -1656,7 +1682,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="B22" s="2" t="s">
         <v>29</v>
@@ -1674,7 +1700,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="B23" s="2" t="s">
         <v>30</v>
@@ -1692,7 +1718,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
       <c r="B24" s="2" t="s">
         <v>31</v>
@@ -1710,7 +1736,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="28"/>
       <c r="B25" s="2" t="s">
         <v>32</v>
@@ -1728,7 +1754,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
       <c r="B26" s="2" t="s">
         <v>33</v>
@@ -1746,7 +1772,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1764,7 +1790,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
       <c r="B28" s="2" t="s">
         <v>68</v>
@@ -1782,7 +1808,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1800,7 +1826,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
@@ -1818,7 +1844,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -1836,7 +1862,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
       <c r="B32" s="2" t="s">
         <v>149</v>
@@ -1845,7 +1871,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H32" s="3"/>
@@ -1854,7 +1880,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="2" t="s">
         <v>150</v>
@@ -1872,7 +1898,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
       <c r="B34" s="2" t="s">
         <v>151</v>
@@ -1890,7 +1916,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="28"/>
       <c r="B35" s="2" t="s">
         <v>152</v>
@@ -1908,7 +1934,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="28"/>
       <c r="B36" s="2" t="s">
         <v>153</v>
@@ -1926,7 +1952,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="28"/>
       <c r="B37" s="2" t="s">
         <v>154</v>
@@ -1944,11 +1970,101 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="28"/>
+      <c r="B40" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="28"/>
+      <c r="B42" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A37"/>
+    <mergeCell ref="A3:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1963,16 +2079,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.46484375" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>46</v>
       </c>
@@ -1983,7 +2099,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
@@ -2002,7 +2118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="11" t="s">
@@ -2013,7 +2129,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2033,7 +2149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2053,7 +2169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2073,7 +2189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2093,7 +2209,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -2113,7 +2229,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2133,7 +2249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2153,7 +2269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2173,7 +2289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2193,42 +2309,42 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2254,14 +2370,14 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>73</v>
       </c>
@@ -2272,47 +2388,47 @@
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="15" t="s">
         <v>77</v>
       </c>
@@ -2323,17 +2439,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="15" t="s">
         <v>72</v>
       </c>
@@ -2344,17 +2460,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="44"/>
       <c r="E6" t="s">
         <v>78</v>
       </c>
@@ -2365,17 +2481,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="44"/>
       <c r="E7" t="s">
         <v>80</v>
       </c>
@@ -2386,17 +2502,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="44"/>
       <c r="E8" t="s">
         <v>82</v>
       </c>
@@ -2407,17 +2523,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="44"/>
       <c r="E9" t="s">
         <v>83</v>
       </c>
@@ -2428,58 +2544,64 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2487,12 +2609,6 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2506,9 +2622,9 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>111</v>
       </c>
@@ -2519,26 +2635,26 @@
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
@@ -2550,10 +2666,10 @@
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="42"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>16</v>
       </c>
@@ -2576,7 +2692,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>17</v>
       </c>
@@ -2599,7 +2715,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>18</v>
       </c>
@@ -2622,7 +2738,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>19</v>
       </c>
@@ -2645,7 +2761,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>20</v>
       </c>
@@ -2668,60 +2784,60 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2745,13 +2861,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.796875" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -2762,7 +2878,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>35</v>
       </c>
@@ -2783,7 +2899,7 @@
       </c>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="1:7" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>30</v>
       </c>
@@ -2802,7 +2918,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="45.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>31</v>
       </c>
@@ -2820,7 +2936,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>32</v>
       </c>
@@ -2838,7 +2954,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="45.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>33</v>
       </c>
@@ -2856,7 +2972,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="45.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>67</v>
       </c>
@@ -2874,7 +2990,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>68</v>
       </c>
@@ -2892,60 +3008,60 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -2967,12 +3083,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.796875" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>101</v>
       </c>
@@ -2981,7 +3097,7 @@
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
@@ -2998,7 +3114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
@@ -3007,7 +3123,7 @@
       <c r="D3" s="37"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>27</v>
       </c>
@@ -3024,7 +3140,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>28</v>
       </c>
@@ -3041,7 +3157,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>29</v>
       </c>
@@ -3058,7 +3174,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>30</v>
       </c>
@@ -3075,61 +3191,61 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="8"/>
     </row>
   </sheetData>
@@ -3148,18 +3264,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE77D3E-AECA-4E5A-9C22-A49DAFF4EBE3}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.796875" customWidth="1"/>
-    <col min="7" max="7" width="21.1328125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>90</v>
       </c>
@@ -3170,7 +3286,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
@@ -3182,34 +3298,34 @@
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="48"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="49"/>
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
-      <c r="F3" s="42"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" t="s">
         <v>92</v>
       </c>
@@ -3217,18 +3333,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="F5" t="s">
         <v>92</v>
       </c>
@@ -3236,18 +3352,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" t="s">
         <v>92</v>
       </c>
@@ -3255,18 +3371,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" t="s">
         <v>92</v>
       </c>
@@ -3274,18 +3390,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
       <c r="F8" t="s">
         <v>59</v>
       </c>
@@ -3293,75 +3409,75 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3372,17 +3488,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA7D5DB-916A-BB49-823D-FF2F3FE56BCF}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.1328125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>122</v>
       </c>
@@ -3391,7 +3507,7 @@
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
@@ -3401,24 +3517,26 @@
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>36</v>
+      </c>
       <c r="B4" s="17" t="s">
         <v>43</v>
       </c>
@@ -3434,8 +3552,10 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>37</v>
+      </c>
       <c r="B5" s="17" t="s">
         <v>43</v>
       </c>
@@ -3451,8 +3571,10 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>38</v>
+      </c>
       <c r="B6" s="17" t="s">
         <v>43</v>
       </c>
@@ -3468,8 +3590,10 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>39</v>
+      </c>
       <c r="B7" s="17" t="s">
         <v>43</v>
       </c>
@@ -3485,8 +3609,10 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>40</v>
+      </c>
       <c r="B8" s="17" t="s">
         <v>43</v>
       </c>
@@ -3502,7 +3628,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -3511,7 +3637,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -3520,7 +3646,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\Project\Project\winter24--sft221-naa-1\Documents\Testing\Tests Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84e5bdbfc05febe3/Documents/CPASemester2/SFT221/SFT Project/winter24--sft221-naa-1/Documents/Testing/Tests Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33299EF4-ADCA-450B-8B95-909C005A106B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{33299EF4-ADCA-450B-8B95-909C005A106B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF7A0EF5-BFC0-47CD-9098-C7CB3E204B35}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -187,6 +187,72 @@
   </si>
   <si>
     <t>T040</t>
+  </si>
+  <si>
+    <t>T041</t>
+  </si>
+  <si>
+    <t>T042</t>
+  </si>
+  <si>
+    <t>T043</t>
+  </si>
+  <si>
+    <t>T044</t>
+  </si>
+  <si>
+    <t>T045</t>
+  </si>
+  <si>
+    <t>T046</t>
+  </si>
+  <si>
+    <t>T047</t>
+  </si>
+  <si>
+    <t>T048</t>
+  </si>
+  <si>
+    <t>T049</t>
+  </si>
+  <si>
+    <t>T050</t>
+  </si>
+  <si>
+    <t>T051</t>
+  </si>
+  <si>
+    <t>T052</t>
+  </si>
+  <si>
+    <t>T053</t>
+  </si>
+  <si>
+    <t>T054</t>
+  </si>
+  <si>
+    <t>T055</t>
+  </si>
+  <si>
+    <t>T056</t>
+  </si>
+  <si>
+    <t>T057</t>
+  </si>
+  <si>
+    <t>T058</t>
+  </si>
+  <si>
+    <t>T059</t>
+  </si>
+  <si>
+    <t>T015(1)</t>
+  </si>
+  <si>
+    <t>T014(1)</t>
+  </si>
+  <si>
+    <t>T013(1)</t>
   </si>
 </sst>
 </file>
@@ -292,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -311,6 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,19 +692,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -655,7 +722,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
@@ -683,7 +750,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -703,7 +770,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -721,7 +788,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -739,7 +806,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -757,7 +824,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -775,7 +842,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -793,7 +860,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -811,7 +878,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -829,7 +896,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -847,7 +914,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -865,7 +932,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -883,7 +950,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -901,7 +968,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -919,7 +986,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -937,7 +1004,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -955,16 +1022,16 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -973,16 +1040,16 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -991,16 +1058,16 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1009,10 +1076,10 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1027,10 +1094,10 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1045,17 +1112,17 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1063,17 +1130,17 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1081,17 +1148,17 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1099,17 +1166,17 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1117,17 +1184,17 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1135,17 +1202,17 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1153,263 +1220,640 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="F30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="F31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="F32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="5" t="s">
-        <v>46</v>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="5" t="s">
-        <v>47</v>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="5" t="s">
-        <v>49</v>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H40" s="3"/>
-      <c r="I40" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H42" s="3"/>
-      <c r="I42" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A42"/>
+    <mergeCell ref="A3:A45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84e5bdbfc05febe3/Documents/CPASemester2/SFT221/SFT Project/winter24--sft221-naa-1/Documents/Testing/Tests Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\Project\MS4\Documents\Testing\Tests Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{33299EF4-ADCA-450B-8B95-909C005A106B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF7A0EF5-BFC0-47CD-9098-C7CB3E204B35}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6037A7-08F7-470B-BF62-EFE32196AAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -253,6 +253,30 @@
   </si>
   <si>
     <t>T013(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R001 </t>
+  </si>
+  <si>
+    <t>Size of package is 0.5 , 1 and 5</t>
+  </si>
+  <si>
+    <t>Valid Destination is having address which present is buliding in map</t>
+  </si>
+  <si>
+    <t>Weight of package is not exceess 1200g</t>
+  </si>
+  <si>
+    <t>Truck have enough to space to have 50 cubic meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add route to map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance of starting point and delivery </t>
+  </si>
+  <si>
+    <t>User input correct requirement</t>
   </si>
 </sst>
 </file>
@@ -274,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,13 +388,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,38 +723,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -750,14 +781,14 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="3"/>
@@ -770,12 +801,12 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="3"/>
@@ -788,12 +819,12 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="3"/>
@@ -806,12 +837,12 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="3"/>
@@ -824,12 +855,12 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="3"/>
@@ -842,12 +873,12 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="3"/>
@@ -860,12 +891,12 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="3"/>
@@ -877,13 +908,19 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3"/>
@@ -895,13 +932,19 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="3"/>
@@ -913,14 +956,20 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="O11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="3"/>
@@ -931,14 +980,20 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="O12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="3"/>
@@ -949,14 +1004,20 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="O13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="3"/>
@@ -967,14 +1028,20 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="O14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="3"/>
@@ -985,14 +1052,20 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="O15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="3"/>
@@ -1004,13 +1077,13 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="3"/>
@@ -1022,13 +1095,13 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="3"/>
@@ -1040,13 +1113,13 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="3"/>
@@ -1058,13 +1131,13 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="3"/>
@@ -1076,14 +1149,14 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="3"/>
@@ -1094,14 +1167,14 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="3"/>
@@ -1112,14 +1185,14 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="3"/>
@@ -1130,14 +1203,14 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="3"/>
@@ -1148,14 +1221,14 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="3"/>
@@ -1166,14 +1239,14 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="3"/>
@@ -1184,14 +1257,14 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="3"/>
@@ -1202,14 +1275,14 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F28" s="3"/>
@@ -1220,14 +1293,14 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="3"/>
@@ -1238,15 +1311,15 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="3"/>
@@ -1256,15 +1329,15 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
       <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G31" s="3"/>
@@ -1274,15 +1347,15 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="3"/>
@@ -1292,15 +1365,15 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="3"/>
@@ -1310,15 +1383,15 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+    <row r="34" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
       <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G34" s="3"/>
@@ -1328,15 +1401,15 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G35" s="3"/>
@@ -1346,15 +1419,15 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G36" s="3"/>
@@ -1364,15 +1437,15 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="3"/>
@@ -1382,15 +1455,15 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
       <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="3"/>
@@ -1400,15 +1473,15 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G39" s="3"/>
@@ -1418,8 +1491,8 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
@@ -1427,7 +1500,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H40" s="3"/>
@@ -1436,8 +1509,8 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
       <c r="B41" s="5" t="s">
         <v>46</v>
       </c>
@@ -1445,7 +1518,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H41" s="3"/>
@@ -1454,8 +1527,8 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
       <c r="B42" s="5" t="s">
         <v>47</v>
       </c>
@@ -1463,7 +1536,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H42" s="3"/>
@@ -1472,8 +1545,8 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
       <c r="B43" s="5" t="s">
         <v>49</v>
       </c>
@@ -1481,7 +1554,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="3"/>
@@ -1490,8 +1563,8 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
@@ -1499,7 +1572,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H44" s="3"/>
@@ -1508,8 +1581,8 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
@@ -1517,7 +1590,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H45" s="3"/>
@@ -1526,7 +1599,8 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
       <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
@@ -1534,7 +1608,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="3"/>
@@ -1543,7 +1617,8 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="10"/>
       <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
@@ -1552,7 +1627,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I47" s="3"/>
@@ -1560,7 +1635,8 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="10"/>
       <c r="B48" s="5" t="s">
         <v>53</v>
       </c>
@@ -1569,7 +1645,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I48" s="3"/>
@@ -1577,7 +1653,8 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="10"/>
       <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
@@ -1586,7 +1663,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I49" s="3"/>
@@ -1594,7 +1671,8 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="10"/>
       <c r="B50" s="5" t="s">
         <v>55</v>
       </c>
@@ -1603,7 +1681,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I50" s="3"/>
@@ -1611,7 +1689,8 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="10"/>
       <c r="B51" s="5" t="s">
         <v>56</v>
       </c>
@@ -1620,7 +1699,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I51" s="3"/>
@@ -1628,7 +1707,8 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="10"/>
       <c r="B52" s="5" t="s">
         <v>57</v>
       </c>
@@ -1637,7 +1717,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I52" s="3"/>
@@ -1645,7 +1725,8 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="10"/>
       <c r="B53" s="2" t="s">
         <v>58</v>
       </c>
@@ -1654,7 +1735,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I53" s="3"/>
@@ -1662,7 +1743,8 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="10"/>
       <c r="B54" s="5" t="s">
         <v>59</v>
       </c>
@@ -1671,7 +1753,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I54" s="3"/>
@@ -1679,7 +1761,8 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="10"/>
       <c r="B55" s="5" t="s">
         <v>60</v>
       </c>
@@ -1688,7 +1771,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="6" t="s">
         <v>39</v>
       </c>
       <c r="I55" s="3"/>
@@ -1696,7 +1779,8 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
       <c r="B56" s="5" t="s">
         <v>61</v>
       </c>
@@ -1706,14 +1790,15 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="10"/>
       <c r="B57" s="5" t="s">
         <v>62</v>
       </c>
@@ -1723,14 +1808,15 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="10"/>
       <c r="B58" s="5" t="s">
         <v>63</v>
       </c>
@@ -1740,14 +1826,15 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="10"/>
       <c r="B59" s="5" t="s">
         <v>64</v>
       </c>
@@ -1757,14 +1844,15 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="10"/>
       <c r="B60" s="5" t="s">
         <v>65</v>
       </c>
@@ -1774,14 +1862,15 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="3" t="s">
+      <c r="I60" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="10"/>
       <c r="B61" s="5" t="s">
         <v>66</v>
       </c>
@@ -1791,14 +1880,15 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="10"/>
       <c r="B62" s="5" t="s">
         <v>67</v>
       </c>
@@ -1808,14 +1898,15 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="10"/>
       <c r="B63" s="5" t="s">
         <v>68</v>
       </c>
@@ -1825,14 +1916,15 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="10"/>
       <c r="B64" s="5" t="s">
         <v>69</v>
       </c>
@@ -1842,7 +1934,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J64" s="3"/>
@@ -1853,7 +1945,7 @@
   <mergeCells count="3">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A45"/>
+    <mergeCell ref="A3:A64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\Project\MS4\Documents\Testing\Tests Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84e5bdbfc05febe3/Documents/CPASemester2/SFT221/SFT Project/winter24--sft221-naa-1/Documents/Testing/Tests Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6037A7-08F7-470B-BF62-EFE32196AAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{C03ECAA3-D8E2-47C0-99A4-E916FB752183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2C1A94-6E1E-4772-BE81-69BE3CAA1B8A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="99">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Valid Destination is having address which present is buliding in map</t>
   </si>
   <si>
-    <t>Weight of package is not exceess 1200g</t>
-  </si>
-  <si>
     <t>Truck have enough to space to have 50 cubic meter</t>
   </si>
   <si>
@@ -277,6 +274,63 @@
   </si>
   <si>
     <t>User input correct requirement</t>
+  </si>
+  <si>
+    <t>T060</t>
+  </si>
+  <si>
+    <t>T061</t>
+  </si>
+  <si>
+    <t>T062</t>
+  </si>
+  <si>
+    <t>T063</t>
+  </si>
+  <si>
+    <t>T064</t>
+  </si>
+  <si>
+    <t>T065</t>
+  </si>
+  <si>
+    <t>T066</t>
+  </si>
+  <si>
+    <t>T067</t>
+  </si>
+  <si>
+    <t>T068</t>
+  </si>
+  <si>
+    <t>T069</t>
+  </si>
+  <si>
+    <t>T070</t>
+  </si>
+  <si>
+    <t>T071</t>
+  </si>
+  <si>
+    <t>T072</t>
+  </si>
+  <si>
+    <t>T073</t>
+  </si>
+  <si>
+    <t>T074</t>
+  </si>
+  <si>
+    <t>T077</t>
+  </si>
+  <si>
+    <t>T075</t>
+  </si>
+  <si>
+    <t>T076</t>
+  </si>
+  <si>
+    <t>Weight of package is not exceess 1200g and can fit on truck</t>
   </si>
 </sst>
 </file>
@@ -298,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +380,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -396,6 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,38 +784,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -781,8 +842,8 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -801,8 +862,8 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -819,8 +880,8 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -837,8 +898,8 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -855,8 +916,8 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -873,8 +934,8 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -891,8 +952,8 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -915,8 +976,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -936,11 +997,11 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -963,8 +1024,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -984,11 +1045,11 @@
         <v>5</v>
       </c>
       <c r="P12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1008,11 +1069,11 @@
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1032,11 +1093,11 @@
         <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1056,11 +1117,11 @@
         <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1077,8 +1138,8 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1095,8 +1156,8 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
@@ -1113,8 +1174,8 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
@@ -1131,8 +1192,8 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>70</v>
       </c>
@@ -1149,8 +1210,8 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1167,8 +1228,8 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1185,8 +1246,8 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1203,8 +1264,8 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1221,8 +1282,8 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1239,8 +1300,8 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1257,8 +1318,8 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1275,8 +1336,8 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1293,8 +1354,8 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1311,8 +1372,8 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1329,8 +1390,8 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
       <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1347,8 +1408,8 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1365,8 +1426,8 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1383,8 +1444,8 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:12" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1401,8 +1462,8 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1419,8 +1480,8 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1437,8 +1498,8 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
@@ -1455,8 +1516,8 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
       <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
@@ -1473,8 +1534,8 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
@@ -1491,8 +1552,8 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
@@ -1509,8 +1570,8 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
       <c r="B41" s="5" t="s">
         <v>46</v>
       </c>
@@ -1527,8 +1588,8 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
       <c r="B42" s="5" t="s">
         <v>47</v>
       </c>
@@ -1545,8 +1606,8 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
       <c r="B43" s="5" t="s">
         <v>49</v>
       </c>
@@ -1563,8 +1624,8 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
@@ -1581,8 +1642,8 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
@@ -1599,8 +1660,8 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
       <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
@@ -1608,7 +1669,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="3"/>
@@ -1617,8 +1678,8 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="10"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
       <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
@@ -1635,8 +1696,8 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="11"/>
       <c r="B48" s="5" t="s">
         <v>53</v>
       </c>
@@ -1653,8 +1714,8 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
       <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
@@ -1671,8 +1732,8 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="11"/>
       <c r="B50" s="5" t="s">
         <v>55</v>
       </c>
@@ -1689,8 +1750,8 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="10"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
         <v>56</v>
       </c>
@@ -1707,8 +1768,8 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
       <c r="B52" s="5" t="s">
         <v>57</v>
       </c>
@@ -1725,8 +1786,8 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="10"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
       <c r="B53" s="2" t="s">
         <v>58</v>
       </c>
@@ -1743,8 +1804,8 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
       <c r="B54" s="5" t="s">
         <v>59</v>
       </c>
@@ -1761,8 +1822,8 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
       <c r="B55" s="5" t="s">
         <v>60</v>
       </c>
@@ -1779,8 +1840,8 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
       <c r="B56" s="5" t="s">
         <v>61</v>
       </c>
@@ -1797,8 +1858,8 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="11"/>
       <c r="B57" s="5" t="s">
         <v>62</v>
       </c>
@@ -1815,8 +1876,8 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
       <c r="B58" s="5" t="s">
         <v>63</v>
       </c>
@@ -1833,8 +1894,8 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="11"/>
       <c r="B59" s="5" t="s">
         <v>64</v>
       </c>
@@ -1851,8 +1912,8 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="11"/>
       <c r="B60" s="5" t="s">
         <v>65</v>
       </c>
@@ -1869,8 +1930,8 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="11"/>
       <c r="B61" s="5" t="s">
         <v>66</v>
       </c>
@@ -1887,8 +1948,8 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="10"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
       <c r="B62" s="5" t="s">
         <v>67</v>
       </c>
@@ -1905,8 +1966,8 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="10"/>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
       <c r="B63" s="5" t="s">
         <v>68</v>
       </c>
@@ -1923,8 +1984,8 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="11"/>
       <c r="B64" s="5" t="s">
         <v>69</v>
       </c>
@@ -1940,6 +2001,521 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B71" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B73" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B76" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B77" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B78" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B80" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B81" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B82" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B84" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B85" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B86" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B87" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B88" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B89" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B90" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B91" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84e5bdbfc05febe3/Documents/CPASemester2/SFT221/SFT Project/winter24--sft221-naa-1/Documents/Testing/Tests Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\MS4\Documents\Testing\Tests Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{C03ECAA3-D8E2-47C0-99A4-E916FB752183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2C1A94-6E1E-4772-BE81-69BE3CAA1B8A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B85A8A-E7DB-445C-968F-4E8FDA74D675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -457,19 +457,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,36 +789,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V79" sqref="V79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -842,8 +845,8 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -862,8 +865,8 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -880,8 +883,8 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -898,8 +901,8 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -916,8 +919,8 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -934,8 +937,8 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -952,8 +955,8 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -976,8 +979,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1000,8 +1003,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1024,8 +1027,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1048,8 +1051,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1072,8 +1075,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1096,8 +1099,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1120,8 +1123,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1138,8 +1141,8 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1156,8 +1159,8 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
@@ -1174,8 +1177,8 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
@@ -1192,8 +1195,8 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
         <v>70</v>
       </c>
@@ -1210,8 +1213,8 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1228,8 +1231,8 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1246,8 +1249,8 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1264,8 +1267,8 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1282,8 +1285,8 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1300,8 +1303,8 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1318,8 +1321,8 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1336,8 +1339,8 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1354,8 +1357,8 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1372,8 +1375,8 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1390,8 +1393,8 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="13"/>
       <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1408,8 +1411,8 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1426,8 +1429,8 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1444,8 +1447,8 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
+    <row r="34" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="13"/>
       <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1462,8 +1465,8 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="13"/>
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1480,8 +1483,8 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="13"/>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1498,8 +1501,8 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="13"/>
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
@@ -1516,8 +1519,8 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="13"/>
       <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
@@ -1534,8 +1537,8 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="13"/>
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
@@ -1552,8 +1555,8 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="13"/>
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
@@ -1570,8 +1573,8 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="13"/>
       <c r="B41" s="5" t="s">
         <v>46</v>
       </c>
@@ -1588,8 +1591,8 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="13"/>
       <c r="B42" s="5" t="s">
         <v>47</v>
       </c>
@@ -1606,8 +1609,8 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="13"/>
       <c r="B43" s="5" t="s">
         <v>49</v>
       </c>
@@ -1624,8 +1627,8 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="13"/>
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
@@ -1642,8 +1645,8 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="13"/>
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
@@ -1660,8 +1663,8 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="13"/>
       <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
@@ -1678,8 +1681,8 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="13"/>
       <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
@@ -1696,8 +1699,8 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="13"/>
       <c r="B48" s="5" t="s">
         <v>53</v>
       </c>
@@ -1714,8 +1717,8 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="13"/>
       <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
@@ -1732,8 +1735,8 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="13"/>
       <c r="B50" s="5" t="s">
         <v>55</v>
       </c>
@@ -1750,8 +1753,8 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="13"/>
       <c r="B51" s="5" t="s">
         <v>56</v>
       </c>
@@ -1768,8 +1771,8 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="13"/>
       <c r="B52" s="5" t="s">
         <v>57</v>
       </c>
@@ -1786,8 +1789,8 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="13"/>
       <c r="B53" s="2" t="s">
         <v>58</v>
       </c>
@@ -1804,8 +1807,8 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="13"/>
       <c r="B54" s="5" t="s">
         <v>59</v>
       </c>
@@ -1822,8 +1825,8 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="13"/>
       <c r="B55" s="5" t="s">
         <v>60</v>
       </c>
@@ -1840,8 +1843,8 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="13"/>
       <c r="B56" s="5" t="s">
         <v>61</v>
       </c>
@@ -1858,8 +1861,8 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="13"/>
       <c r="B57" s="5" t="s">
         <v>62</v>
       </c>
@@ -1876,8 +1879,8 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="13"/>
       <c r="B58" s="5" t="s">
         <v>63</v>
       </c>
@@ -1894,8 +1897,8 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
       <c r="B59" s="5" t="s">
         <v>64</v>
       </c>
@@ -1912,8 +1915,8 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="13"/>
       <c r="B60" s="5" t="s">
         <v>65</v>
       </c>
@@ -1930,8 +1933,8 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="13"/>
       <c r="B61" s="5" t="s">
         <v>66</v>
       </c>
@@ -1948,7 +1951,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="11"/>
       <c r="B62" s="5" t="s">
         <v>67</v>
@@ -1966,7 +1969,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
       <c r="B63" s="5" t="s">
         <v>68</v>
@@ -1984,7 +1987,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
       <c r="B64" s="5" t="s">
         <v>69</v>
@@ -2002,7 +2005,8 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="11"/>
       <c r="B65" s="5" t="s">
         <v>61</v>
       </c>
@@ -2019,7 +2023,8 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="11"/>
       <c r="B66" s="5" t="s">
         <v>62</v>
       </c>
@@ -2036,7 +2041,8 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="11"/>
       <c r="B67" s="5" t="s">
         <v>63</v>
       </c>
@@ -2053,7 +2059,8 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="11"/>
       <c r="B68" s="5" t="s">
         <v>64</v>
       </c>
@@ -2070,7 +2077,8 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="11"/>
       <c r="B69" s="5" t="s">
         <v>65</v>
       </c>
@@ -2087,7 +2095,8 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="11"/>
       <c r="B70" s="5" t="s">
         <v>66</v>
       </c>
@@ -2104,7 +2113,8 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="11"/>
       <c r="B71" s="5" t="s">
         <v>67</v>
       </c>
@@ -2121,7 +2131,8 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="11"/>
       <c r="B72" s="5" t="s">
         <v>68</v>
       </c>
@@ -2138,7 +2149,8 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="11"/>
       <c r="B73" s="5" t="s">
         <v>69</v>
       </c>
@@ -2155,362 +2167,380 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="11"/>
       <c r="B74" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="E74" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="12"/>
+      <c r="I74" s="8"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="11"/>
       <c r="B75" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="E75" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="12"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="11"/>
       <c r="B76" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="E76" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="12"/>
+      <c r="I76" s="8"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="11"/>
       <c r="B77" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="3"/>
-      <c r="E77" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="E77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="12"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="11"/>
       <c r="B78" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="3"/>
-      <c r="E78" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="E78" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="12"/>
+      <c r="I78" s="8"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="11"/>
       <c r="B79" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="3"/>
-      <c r="E79" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F79" s="3" t="s">
+      <c r="E79" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="12"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="11"/>
       <c r="B80" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F80" s="3"/>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H80" s="3"/>
-      <c r="I80" s="12"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" s="11"/>
       <c r="B81" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F81" s="3"/>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H81" s="3"/>
-      <c r="I81" s="12"/>
+      <c r="I81" s="8"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="11"/>
       <c r="B82" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F82" s="3"/>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H82" s="3"/>
-      <c r="I82" s="12"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="11"/>
       <c r="B83" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F83" s="3"/>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H83" s="3"/>
-      <c r="I83" s="12"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="11"/>
       <c r="B84" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E84" s="3"/>
-      <c r="F84" t="s">
+      <c r="F84" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="12"/>
+      <c r="I84" s="8"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="11"/>
       <c r="B85" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E85" s="3"/>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="12"/>
+      <c r="I85" s="8"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="11"/>
       <c r="B86" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E86" s="3"/>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="12"/>
+      <c r="I86" s="8"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="11"/>
       <c r="B87" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E87" s="3"/>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="12"/>
+      <c r="I87" s="8"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" s="11"/>
       <c r="B88" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I88" s="12" t="s">
+      <c r="H88" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" s="11"/>
       <c r="B89" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I89" s="12" t="s">
+      <c r="H89" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="11"/>
       <c r="B90" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I90" s="12" t="s">
+      <c r="H90" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" s="11"/>
       <c r="B91" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I91" s="12" t="s">
+      <c r="H91" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J91" s="3"/>
@@ -2521,7 +2551,7 @@
   <mergeCells count="3">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A64"/>
+    <mergeCell ref="A62:A91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\MS4\Documents\Testing\Tests Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B85A8A-E7DB-445C-968F-4E8FDA74D675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE9B528-4B8D-432D-80BD-E99D83EC64AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
@@ -352,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -456,8 +462,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,12 +478,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V79" sqref="V79"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -800,25 +807,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -846,7 +853,7 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -866,7 +873,7 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -884,7 +891,7 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -902,7 +909,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -920,7 +927,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -938,7 +945,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -956,7 +963,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -980,7 +987,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1004,7 +1011,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1028,7 +1035,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +1059,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1076,7 +1083,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1100,7 +1107,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1124,7 +1131,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1142,7 +1149,7 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1160,7 +1167,7 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
@@ -1178,7 +1185,7 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
@@ -1196,7 +1203,7 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>70</v>
       </c>
@@ -1214,7 +1221,7 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1232,7 +1239,7 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1257,7 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1268,7 +1275,7 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1293,7 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1304,13 +1311,13 @@
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="3"/>
@@ -1322,13 +1329,13 @@
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="3"/>
@@ -1340,7 +1347,7 @@
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1358,7 +1365,7 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1376,7 +1383,7 @@
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1394,7 +1401,7 @@
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1412,14 +1419,14 @@
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="3"/>
@@ -1430,14 +1437,14 @@
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="3"/>
@@ -1448,7 +1455,7 @@
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1466,7 +1473,7 @@
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1484,7 +1491,7 @@
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1502,7 +1509,7 @@
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
@@ -1520,7 +1527,7 @@
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
@@ -1538,7 +1545,7 @@
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
@@ -1556,7 +1563,7 @@
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
@@ -1574,7 +1581,7 @@
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="5" t="s">
         <v>46</v>
       </c>
@@ -1592,7 +1599,7 @@
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="5" t="s">
         <v>47</v>
       </c>
@@ -1610,7 +1617,7 @@
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
         <v>49</v>
       </c>
@@ -1628,7 +1635,7 @@
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="13"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
@@ -1646,7 +1653,7 @@
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="13"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
@@ -1654,7 +1661,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H45" s="3"/>
@@ -1664,7 +1671,7 @@
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="13"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
@@ -1672,7 +1679,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="3"/>
@@ -1682,7 +1689,7 @@
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
@@ -1700,7 +1707,7 @@
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="13"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="5" t="s">
         <v>53</v>
       </c>
@@ -1718,7 +1725,7 @@
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="13"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
@@ -1736,7 +1743,7 @@
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="13"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="5" t="s">
         <v>55</v>
       </c>
@@ -1754,7 +1761,7 @@
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="5" t="s">
         <v>56</v>
       </c>
@@ -1772,7 +1779,7 @@
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="13"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="5" t="s">
         <v>57</v>
       </c>
@@ -1790,7 +1797,7 @@
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="2" t="s">
         <v>58</v>
       </c>
@@ -1808,7 +1815,7 @@
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="5" t="s">
         <v>59</v>
       </c>
@@ -1826,7 +1833,7 @@
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="13"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
         <v>60</v>
       </c>
@@ -1844,7 +1851,7 @@
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="13"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
         <v>61</v>
       </c>
@@ -1862,7 +1869,7 @@
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="13"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="5" t="s">
         <v>62</v>
       </c>
@@ -1880,7 +1887,7 @@
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="13"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="5" t="s">
         <v>63</v>
       </c>
@@ -1898,7 +1905,7 @@
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="13"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="5" t="s">
         <v>64</v>
       </c>
@@ -1916,7 +1923,7 @@
       <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="13"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="5" t="s">
         <v>65</v>
       </c>
@@ -1934,7 +1941,7 @@
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="13"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="5" t="s">
         <v>66</v>
       </c>
@@ -1952,7 +1959,7 @@
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="11"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="5" t="s">
         <v>67</v>
       </c>
@@ -1970,7 +1977,7 @@
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="11"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="5" t="s">
         <v>68</v>
       </c>
@@ -1988,7 +1995,7 @@
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="11"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="5" t="s">
         <v>69</v>
       </c>
@@ -2006,7 +2013,7 @@
       <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="11"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="5" t="s">
         <v>61</v>
       </c>
@@ -2024,7 +2031,7 @@
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="11"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="5" t="s">
         <v>62</v>
       </c>
@@ -2042,7 +2049,7 @@
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="11"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="5" t="s">
         <v>63</v>
       </c>
@@ -2060,7 +2067,7 @@
       <c r="L67" s="3"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="11"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="5" t="s">
         <v>64</v>
       </c>
@@ -2078,7 +2085,7 @@
       <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="11"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="5" t="s">
         <v>65</v>
       </c>
@@ -2096,7 +2103,7 @@
       <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="11"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="5" t="s">
         <v>66</v>
       </c>
@@ -2114,7 +2121,7 @@
       <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="11"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="5" t="s">
         <v>67</v>
       </c>
@@ -2132,7 +2139,7 @@
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="11"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="5" t="s">
         <v>68</v>
       </c>
@@ -2150,7 +2157,7 @@
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="11"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="5" t="s">
         <v>69</v>
       </c>
@@ -2168,7 +2175,7 @@
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="11"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="5" t="s">
         <v>80</v>
       </c>
@@ -2184,13 +2191,13 @@
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="8"/>
+      <c r="I74" s="7"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="11"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="5" t="s">
         <v>81</v>
       </c>
@@ -2206,13 +2213,13 @@
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="8"/>
+      <c r="I75" s="7"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="11"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="5" t="s">
         <v>82</v>
       </c>
@@ -2228,13 +2235,13 @@
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="8"/>
+      <c r="I76" s="7"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="11"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="5" t="s">
         <v>83</v>
       </c>
@@ -2250,13 +2257,13 @@
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="8"/>
+      <c r="I77" s="7"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="11"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="5" t="s">
         <v>84</v>
       </c>
@@ -2272,13 +2279,13 @@
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="8"/>
+      <c r="I78" s="7"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="11"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="5" t="s">
         <v>85</v>
       </c>
@@ -2294,13 +2301,13 @@
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="8"/>
+      <c r="I79" s="7"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="11"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="5" t="s">
         <v>86</v>
       </c>
@@ -2314,13 +2321,13 @@
         <v>39</v>
       </c>
       <c r="H80" s="3"/>
-      <c r="I80" s="8"/>
+      <c r="I80" s="7"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="11"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="5" t="s">
         <v>87</v>
       </c>
@@ -2334,13 +2341,13 @@
         <v>39</v>
       </c>
       <c r="H81" s="3"/>
-      <c r="I81" s="8"/>
+      <c r="I81" s="7"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="11"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="5" t="s">
         <v>88</v>
       </c>
@@ -2354,13 +2361,13 @@
         <v>39</v>
       </c>
       <c r="H82" s="3"/>
-      <c r="I82" s="8"/>
+      <c r="I82" s="7"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="11"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="5" t="s">
         <v>89</v>
       </c>
@@ -2374,13 +2381,13 @@
         <v>39</v>
       </c>
       <c r="H83" s="3"/>
-      <c r="I83" s="8"/>
+      <c r="I83" s="7"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="11"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="5" t="s">
         <v>90</v>
       </c>
@@ -2394,13 +2401,13 @@
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="8"/>
+      <c r="I84" s="7"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="11"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="5" t="s">
         <v>91</v>
       </c>
@@ -2414,13 +2421,13 @@
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="8"/>
+      <c r="I85" s="7"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="11"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="5" t="s">
         <v>92</v>
       </c>
@@ -2434,13 +2441,13 @@
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="8"/>
+      <c r="I86" s="7"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="11"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="5" t="s">
         <v>93</v>
       </c>
@@ -2454,13 +2461,13 @@
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="8"/>
+      <c r="I87" s="7"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="11"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="5" t="s">
         <v>94</v>
       </c>
@@ -2482,7 +2489,7 @@
       <c r="L88" s="3"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="11"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="5" t="s">
         <v>96</v>
       </c>
@@ -2504,7 +2511,7 @@
       <c r="L89" s="3"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="11"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="5" t="s">
         <v>97</v>
       </c>
@@ -2526,7 +2533,7 @@
       <c r="L90" s="3"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="11"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="5" t="s">
         <v>95</v>
       </c>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\MS4\Documents\Testing\Tests Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\Final\Documents\Testing\Tests Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE9B528-4B8D-432D-80BD-E99D83EC64AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD5EE8-7141-49E1-9861-93130F7D5CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
@@ -352,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,12 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -478,8 +472,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1317,7 +1309,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="3"/>
@@ -1335,7 +1327,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="3"/>
@@ -1426,7 +1418,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="3"/>
@@ -1444,7 +1436,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="3"/>
@@ -1661,7 +1653,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H45" s="3"/>
@@ -1679,7 +1671,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="3"/>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\Final\Documents\Testing\Tests Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPASemester2\SFT221\SFT Project\winter24--sft221-naa-1\Documents\Testing\Tests Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD5EE8-7141-49E1-9861-93130F7D5CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699051AB-A60F-43FA-B9D1-1407DE13600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="2184" yWindow="576" windowWidth="20856" windowHeight="11664" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -57,12 +57,6 @@
     <t>R005</t>
   </si>
   <si>
-    <t>R006</t>
-  </si>
-  <si>
-    <t>R007</t>
-  </si>
-  <si>
     <t>T001</t>
   </si>
   <si>
@@ -265,12 +259,6 @@
   </si>
   <si>
     <t>Truck have enough to space to have 50 cubic meter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add route to map </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance of starting point and delivery </t>
   </si>
   <si>
     <t>User input correct requirement</t>
@@ -352,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,12 +368,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -456,7 +438,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -786,38 +767,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44:G46"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -834,25 +813,19 @@
       <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -861,16 +834,14 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -879,16 +850,14 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -897,16 +866,14 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -915,16 +882,14 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -933,16 +898,14 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -951,16 +914,14 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -969,22 +930,20 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="O9" t="s">
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" t="s">
         <v>73</v>
       </c>
-      <c r="P9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -993,22 +952,20 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="O10" t="s">
+      <c r="M10" t="s">
         <v>3</v>
       </c>
-      <c r="P10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1017,23 +974,21 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="O11" t="s">
+      <c r="M11" t="s">
         <v>4</v>
       </c>
-      <c r="P11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1041,23 +996,21 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="O12" t="s">
+      <c r="M12" t="s">
         <v>5</v>
       </c>
-      <c r="P12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1065,23 +1018,21 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="O13" t="s">
+      <c r="M13" t="s">
         <v>6</v>
       </c>
-      <c r="P13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
+      <c r="N13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1089,23 +1040,15 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="O14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1113,23 +1056,15 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="O15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1137,17 +1072,15 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1155,17 +1088,15 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1173,17 +1104,15 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1191,17 +1120,15 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1209,643 +1136,553 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
+    </row>
+    <row r="34" spans="1:10" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="9"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
       <c r="B41" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
       <c r="B42" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
       <c r="B45" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
       <c r="B48" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
       <c r="B49" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
       <c r="B50" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
       <c r="B51" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
       <c r="B52" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
       <c r="B54" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
       <c r="B55" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
       <c r="B56" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1853,17 +1690,13 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
       <c r="B57" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1871,17 +1704,13 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
       <c r="B58" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1889,17 +1718,13 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
       <c r="B59" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1907,17 +1732,13 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
       <c r="B60" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1925,17 +1746,13 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
       <c r="B61" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -1943,17 +1760,13 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="12"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
       <c r="B62" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1961,17 +1774,13 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="12"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
       <c r="B63" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1979,17 +1788,13 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="12"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="11"/>
       <c r="B64" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -1997,17 +1802,13 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="12"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="11"/>
       <c r="B65" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2015,17 +1816,13 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="12"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="11"/>
       <c r="B66" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2033,17 +1830,13 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="12"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="11"/>
       <c r="B67" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2051,17 +1844,13 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="12"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="11"/>
       <c r="B68" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2069,17 +1858,13 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="12"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="11"/>
       <c r="B69" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2087,17 +1872,13 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="12"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
       <c r="B70" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2105,17 +1886,13 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="12"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="11"/>
       <c r="B71" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2123,17 +1900,13 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="12"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="11"/>
       <c r="B72" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2141,17 +1914,13 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="12"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="11"/>
       <c r="B73" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2159,396 +1928,340 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="12"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="11"/>
       <c r="B74" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="7"/>
+      <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="12"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="11"/>
       <c r="B75" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="7"/>
+      <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="12"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="11"/>
       <c r="B76" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="7"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="12"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="11"/>
       <c r="B77" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="7"/>
+      <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="12"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="11"/>
       <c r="B78" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="7"/>
+      <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="12"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="11"/>
       <c r="B79" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="7"/>
+      <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="12"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="11"/>
       <c r="B80" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H80" s="3"/>
-      <c r="I80" s="7"/>
+      <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="12"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="11"/>
       <c r="B81" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H81" s="3"/>
-      <c r="I81" s="7"/>
+      <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="12"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="11"/>
       <c r="B82" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H82" s="3"/>
-      <c r="I82" s="7"/>
+      <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="12"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="11"/>
       <c r="B83" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H83" s="3"/>
-      <c r="I83" s="7"/>
+      <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="12"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="11"/>
       <c r="B84" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="7"/>
+      <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="12"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="11"/>
       <c r="B85" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="7"/>
+      <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="12"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="11"/>
       <c r="B86" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="7"/>
+      <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="12"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="11"/>
       <c r="B87" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="7"/>
+      <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="12"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="11"/>
       <c r="B88" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="12"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="11"/>
       <c r="B89" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="12"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="11"/>
       <c r="B90" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="12"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="11"/>
       <c r="B91" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A62:A91"/>
   </mergeCells>

--- a/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
+++ b/Documents/Testing/Tests Documents/traceability-matrix-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPASemester2\SFT221\SFT Project\winter24--sft221-naa-1\Documents\Testing\Tests Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Semeter_2\SFT\Final\Documents\Testing\Tests Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699051AB-A60F-43FA-B9D1-1407DE13600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C15898D-5CCB-400F-8EBE-8B623411F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2184" yWindow="576" windowWidth="20856" windowHeight="11664" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -184,60 +184,6 @@
   </si>
   <si>
     <t>T041</t>
-  </si>
-  <si>
-    <t>T042</t>
-  </si>
-  <si>
-    <t>T043</t>
-  </si>
-  <si>
-    <t>T044</t>
-  </si>
-  <si>
-    <t>T045</t>
-  </si>
-  <si>
-    <t>T046</t>
-  </si>
-  <si>
-    <t>T047</t>
-  </si>
-  <si>
-    <t>T048</t>
-  </si>
-  <si>
-    <t>T049</t>
-  </si>
-  <si>
-    <t>T050</t>
-  </si>
-  <si>
-    <t>T051</t>
-  </si>
-  <si>
-    <t>T052</t>
-  </si>
-  <si>
-    <t>T053</t>
-  </si>
-  <si>
-    <t>T054</t>
-  </si>
-  <si>
-    <t>T055</t>
-  </si>
-  <si>
-    <t>T056</t>
-  </si>
-  <si>
-    <t>T057</t>
-  </si>
-  <si>
-    <t>T058</t>
-  </si>
-  <si>
-    <t>T059</t>
   </si>
   <si>
     <t>T015(1)</t>
@@ -767,19 +713,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -795,7 +741,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
@@ -817,7 +763,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -835,7 +781,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -851,7 +797,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -867,7 +813,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -883,7 +829,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -899,7 +845,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -915,7 +861,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -931,13 +877,13 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -956,10 +902,10 @@
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -978,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -1000,10 +946,10 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1022,10 +968,10 @@
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
         <v>18</v>
@@ -1041,7 +987,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>19</v>
@@ -1057,7 +1003,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -1073,7 +1019,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -1089,10 +1035,10 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6" t="s">
@@ -1105,10 +1051,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="6" t="s">
@@ -1121,10 +1067,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="6" t="s">
@@ -1137,7 +1083,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -1153,7 +1099,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -1169,7 +1115,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
         <v>25</v>
@@ -1185,7 +1131,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>26</v>
@@ -1201,7 +1147,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
         <v>27</v>
@@ -1217,7 +1163,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
         <v>28</v>
@@ -1233,7 +1179,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
         <v>29</v>
@@ -1249,7 +1195,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
@@ -1265,7 +1211,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
         <v>31</v>
@@ -1281,7 +1227,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
         <v>32</v>
@@ -1297,7 +1243,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
         <v>33</v>
@@ -1313,7 +1259,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
         <v>34</v>
@@ -1329,7 +1275,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
         <v>35</v>
@@ -1345,7 +1291,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="2" t="s">
         <v>36</v>
@@ -1361,7 +1307,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="2" t="s">
         <v>38</v>
@@ -1377,7 +1323,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="2" t="s">
         <v>39</v>
@@ -1393,7 +1339,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="2" t="s">
         <v>40</v>
@@ -1409,7 +1355,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="2" t="s">
         <v>41</v>
@@ -1425,7 +1371,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="2" t="s">
         <v>42</v>
@@ -1441,7 +1387,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="2" t="s">
         <v>43</v>
@@ -1457,7 +1403,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="5" t="s">
         <v>44</v>
@@ -1473,7 +1419,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="5" t="s">
         <v>45</v>
@@ -1489,7 +1435,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="5" t="s">
         <v>47</v>
@@ -1505,7 +1451,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="5" t="s">
         <v>46</v>
@@ -1521,7 +1467,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="5" t="s">
         <v>48</v>
@@ -1537,7 +1483,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="2" t="s">
         <v>49</v>
@@ -1553,208 +1499,278 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="3"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="11"/>
+      <c r="B47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="E47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="11"/>
       <c r="B48" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="E48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="11"/>
       <c r="B49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="E49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="11"/>
       <c r="B50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="E50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="E51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="11"/>
       <c r="B52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="E52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="2" t="s">
-        <v>56</v>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="11"/>
+      <c r="B53" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="11"/>
       <c r="B54" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="E54" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="G54" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="11"/>
       <c r="B55" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="E55" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="11"/>
       <c r="B56" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="11"/>
       <c r="B57" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="11"/>
       <c r="B58" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="11"/>
       <c r="B59" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="11"/>
       <c r="B60" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="11"/>
       <c r="B61" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1763,12 +1779,14 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="11"/>
       <c r="B62" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1777,12 +1795,14 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
       <c r="B63" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1791,12 +1811,14 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
       <c r="B64" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1805,465 +1827,11 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
-      <c r="B69" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
-      <c r="B72" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
-      <c r="B73" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
-      <c r="B76" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-      <c r="B81" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="11"/>
-      <c r="B84" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="11"/>
-      <c r="B91" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A62:A91"/>
+    <mergeCell ref="A47:A64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
